--- a/Comm Ports July 12 2024.xlsx
+++ b/Comm Ports July 12 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Office\Documents\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6744CA6D-3F15-4519-8D28-E04EBE919D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6FE4C2-E7B8-4A74-B6D0-95ADB1C9C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A50BBAAC-76F9-439E-A673-7D25A1CA45CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{A50BBAAC-76F9-439E-A673-7D25A1CA45CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>Hub 2</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Cockpit Layout</t>
+  </si>
+  <si>
+    <t>hid</t>
   </si>
 </sst>
 </file>
@@ -295,13 +298,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -642,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C326AABD-9032-4E0C-976A-78AFEFB11CD1}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,44 +691,41 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="5"/>
       <c r="R3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -734,44 +733,43 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>41</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="5">
-        <v>4</v>
-      </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>50</v>
       </c>
     </row>
@@ -779,44 +777,43 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>26</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>42</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>4</v>
       </c>
     </row>
@@ -824,40 +821,35 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="5"/>
       <c r="N6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -865,44 +857,40 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>23</v>
       </c>
     </row>
@@ -910,40 +898,35 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>18</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
       <c r="N8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8">
         <v>8</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>8</v>
       </c>
     </row>
@@ -951,38 +934,32 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
       <c r="N9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>6</v>
       </c>
     </row>
@@ -990,38 +967,32 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="5"/>
       <c r="N10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>11</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1029,73 +1000,59 @@
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>13</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>20</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>14</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1103,38 +1060,31 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>21</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13">
         <v>16</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>26</v>
       </c>
     </row>
@@ -1142,40 +1092,34 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>47</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>19</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>17</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>9</v>
       </c>
     </row>
@@ -1183,40 +1127,34 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>31</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>22</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>18</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>18</v>
       </c>
     </row>
@@ -1224,40 +1162,34 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>27</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16">
         <v>19</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>13</v>
       </c>
     </row>
@@ -1265,98 +1197,73 @@
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>24</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17">
         <v>20</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="5"/>
       <c r="N18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18">
         <v>21</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="5"/>
       <c r="N19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19">
         <v>22</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>31</v>
       </c>
     </row>
@@ -1364,30 +1271,20 @@
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="5"/>
       <c r="N20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20">
         <v>23</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>47</v>
       </c>
     </row>
@@ -1395,34 +1292,26 @@
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="5"/>
       <c r="N21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21">
         <v>24</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1430,34 +1319,26 @@
       <c r="A22" s="4">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>17</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="5"/>
       <c r="N22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22">
         <v>25</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>17</v>
       </c>
     </row>
@@ -1465,65 +1346,49 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>16</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="5"/>
       <c r="N23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23">
         <v>26</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R23" s="4"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="5"/>
       <c r="N24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24">
         <v>27</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>24</v>
       </c>
     </row>
@@ -1531,34 +1396,26 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>50</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="5"/>
       <c r="N25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25">
         <v>31</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <v>20</v>
       </c>
     </row>
@@ -1566,30 +1423,20 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="5"/>
       <c r="N26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26">
         <v>41</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="5">
         <v>21</v>
       </c>
     </row>
@@ -1597,30 +1444,20 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="5"/>
       <c r="N27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27">
         <v>42</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="5">
         <v>19</v>
       </c>
     </row>
@@ -1628,30 +1465,20 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="5"/>
       <c r="N28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28">
         <v>47</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="5">
         <v>22</v>
       </c>
     </row>
@@ -1659,34 +1486,26 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="N29" s="7" t="s">
+      <c r="L29" s="5"/>
+      <c r="N29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>50</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="P29" s="8" t="s">
         <v>43</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1694,25 +1513,17 @@
       <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="5"/>
       <c r="R30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>27</v>
       </c>
     </row>
@@ -1720,47 +1531,31 @@
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="5"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="6"/>
+      <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="5"/>
       <c r="R32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="5">
         <v>41</v>
       </c>
     </row>
@@ -1768,25 +1563,17 @@
       <c r="A33" s="4">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>7</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="R33" s="7" t="s">
+      <c r="L33" s="5"/>
+      <c r="R33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="8">
         <v>42</v>
       </c>
     </row>
@@ -1794,71 +1581,45 @@
       <c r="A34" s="4">
         <v>5</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
